--- a/Data/Lab-linked/Outlet_Isotopes_W0toW17.xlsx
+++ b/Data/Lab-linked/Outlet_Isotopes_W0toW17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28380" windowHeight="14160"/>
+    <workbookView xWindow="8920" yWindow="460" windowWidth="28380" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="112">
   <si>
     <t>FileHeader: Filename</t>
   </si>
@@ -317,9 +317,6 @@
     <t>AO-W11-1-1_.dxf</t>
   </si>
   <si>
-    <t>ng (N)</t>
-  </si>
-  <si>
     <t>AO_W9_2-1_0003.dxf</t>
   </si>
   <si>
@@ -338,27 +335,15 @@
     <t>AO_W6_1-1_-0003.dxf</t>
   </si>
   <si>
-    <t>-26.787</t>
-  </si>
-  <si>
     <t>AO_W6_1-2_-0003.dxf</t>
   </si>
   <si>
-    <t>-24.768</t>
-  </si>
-  <si>
     <t>AO_W6_4-1_-0003.dxf</t>
   </si>
   <si>
-    <t>-30.240</t>
-  </si>
-  <si>
     <t>AO_W6_4-2_-0003.dxf</t>
   </si>
   <si>
-    <t>-30.291</t>
-  </si>
-  <si>
     <t>AO_W10_2-1_0005.dxf</t>
   </si>
   <si>
@@ -371,17 +356,30 @@
     <t>AO_W10_5-2_0005.dxf</t>
   </si>
   <si>
-    <t>AO_W10_1-1_000X.dxf</t>
+    <t>AO_W7_1-1_-0003.dxf</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>AO_W7_1-2_-0003.dxf</t>
+  </si>
+  <si>
+    <t>AO_W10_1-2_-0005.dxf</t>
+  </si>
+  <si>
+    <t>no.ng10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,12 +406,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="MS Sans Serif"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="MS Sans Serif"/>
     </font>
   </fonts>
@@ -473,7 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -543,15 +535,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -574,7 +560,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -600,6 +585,23 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -610,7 +612,77 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1001,23 +1073,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O83" sqref="O1:O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="36"/>
+    <col min="4" max="5" width="9.1640625" style="34"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="36"/>
+    <col min="8" max="8" width="9.1640625" style="34"/>
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1033,7 +1105,7 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1042,7 +1114,7 @@
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="10" t="s">
@@ -1063,8 +1135,8 @@
       <c r="N1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>94</v>
+      <c r="O1" s="58" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1111,8 +1183,9 @@
       <c r="N2" s="16">
         <v>5.7902735562310035</v>
       </c>
-      <c r="O2" s="29">
-        <v>2.4601341775611392</v>
+      <c r="O2" s="59">
+        <f>IF(N2&gt;=10,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1157,8 +1230,9 @@
       <c r="N3" s="16">
         <v>7.4316109422492396</v>
       </c>
-      <c r="O3" s="29">
-        <v>2.5579958686022448</v>
+      <c r="O3" s="59">
+        <f t="shared" ref="O3:O66" si="1">IF(N3&gt;=10,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1203,8 +1277,9 @@
       <c r="N4" s="16">
         <v>8.0243161094224913</v>
       </c>
-      <c r="O4" s="29">
-        <v>1.7404161380621024</v>
+      <c r="O4" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1236,7 +1311,9 @@
       <c r="I5" s="6">
         <v>1.3719999999999999</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="20">
+        <v>0.13510366390294529</v>
+      </c>
       <c r="K5" s="3">
         <v>2648.9</v>
       </c>
@@ -1249,8 +1326,9 @@
       <c r="N5" s="16">
         <v>31.95804195804196</v>
       </c>
-      <c r="O5" s="29">
-        <v>1.5596397163896638</v>
+      <c r="O5" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1295,8 +1373,9 @@
       <c r="N6" s="16">
         <v>31.643356643356647</v>
       </c>
-      <c r="O6" s="29">
-        <v>1.2796134945833382</v>
+      <c r="O6" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1341,8 +1420,9 @@
       <c r="N7" s="16">
         <v>32.9020979020979</v>
       </c>
-      <c r="O7" s="29">
-        <v>0.14190306047903747</v>
+      <c r="O7" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1389,8 +1469,9 @@
       <c r="N8" s="16">
         <v>22.386018237082066</v>
       </c>
-      <c r="O8" s="29">
-        <v>0.14190306047903747</v>
+      <c r="O8" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1435,8 +1516,9 @@
       <c r="N9" s="16">
         <v>20.060790273556229</v>
       </c>
-      <c r="O9" s="29">
-        <v>0.1496432274142577</v>
+      <c r="O9" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1481,8 +1563,9 @@
       <c r="N10" s="16">
         <v>16.458966565349545</v>
       </c>
-      <c r="O10" s="29">
-        <v>3.9268446918017275</v>
+      <c r="O10" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1514,7 +1597,9 @@
       <c r="I11" s="6">
         <v>3.3260000000000005</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="20">
+        <v>0.45737074676896389</v>
+      </c>
       <c r="K11" s="3">
         <v>2669.8</v>
       </c>
@@ -1527,8 +1612,9 @@
       <c r="N11" s="16">
         <v>1.8252212389380531</v>
       </c>
-      <c r="O11" s="29">
-        <v>4.4247954313008959</v>
+      <c r="O11" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1573,8 +1659,9 @@
       <c r="N12" s="16">
         <v>1.8252212389380531</v>
       </c>
-      <c r="O12" s="29">
-        <v>4.6750608288730158</v>
+      <c r="O12" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1619,8 +1706,9 @@
       <c r="N13" s="16">
         <v>1.9247787610619469</v>
       </c>
-      <c r="O13" s="29">
-        <v>8.5071257257618035E-2</v>
+      <c r="O13" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1652,7 +1740,9 @@
       <c r="I14" s="6">
         <v>1.6649999999999991</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="20">
+        <v>3.9962482405376198E-2</v>
+      </c>
       <c r="K14" s="3">
         <v>2649.5</v>
       </c>
@@ -1665,8 +1755,9 @@
       <c r="N14" s="16">
         <v>50.508849557522126</v>
       </c>
-      <c r="O14" s="29">
-        <v>0.15586921831476291</v>
+      <c r="O14" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1711,8 +1802,9 @@
       <c r="N15" s="16">
         <v>56.913716814159287</v>
       </c>
-      <c r="O15" s="29">
-        <v>0.16437117567738632</v>
+      <c r="O15" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1757,8 +1849,9 @@
       <c r="N16" s="16">
         <v>60.13274336283186</v>
       </c>
-      <c r="O16" s="29">
-        <v>0.20558887170591025</v>
+      <c r="O16" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1803,8 +1896,9 @@
       <c r="N17" s="16">
         <v>1.094224924012158</v>
       </c>
-      <c r="O17" s="29">
-        <v>6.2631085904659276</v>
+      <c r="O17" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1851,8 +1945,9 @@
       <c r="N18" s="16">
         <v>2.0048602673147022</v>
       </c>
-      <c r="O18" s="29">
-        <v>6.1157413295137886</v>
+      <c r="O18" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1897,8 +1992,9 @@
       <c r="N19" s="16">
         <v>2.1142162818955041</v>
       </c>
-      <c r="O19" s="29">
-        <v>7.0651265683400721</v>
+      <c r="O19" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1943,8 +2039,9 @@
       <c r="N20" s="16">
         <v>2.6443768996960486</v>
       </c>
-      <c r="O20" s="29">
-        <v>14.93965681747669</v>
+      <c r="O20" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1991,8 +2088,9 @@
       <c r="N21" s="16">
         <v>80.558930741190764</v>
       </c>
-      <c r="O21" s="29">
-        <v>1.657881685711569</v>
+      <c r="O21" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2037,8 +2135,9 @@
       <c r="N22" s="16">
         <v>78.663426488456864</v>
       </c>
-      <c r="O22" s="29">
-        <v>1.8987704776525665</v>
+      <c r="O22" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2083,13 +2182,14 @@
       <c r="N23" s="16">
         <v>90.874848116646419</v>
       </c>
-      <c r="O23" s="29">
-        <v>2.6101009103253934</v>
+      <c r="O23" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>6</v>
@@ -2127,8 +2227,9 @@
       <c r="N24" s="16">
         <v>192.1606118546845</v>
       </c>
-      <c r="O24" s="29">
-        <v>2.7688041144276969</v>
+      <c r="O24" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2160,7 +2261,9 @@
       <c r="I25" s="6">
         <v>2.6359999999999992</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="15">
+        <v>1.6970562748477785E-2</v>
+      </c>
       <c r="K25" s="3">
         <v>2662.5</v>
       </c>
@@ -2173,8 +2276,9 @@
       <c r="N25" s="16">
         <v>21.324422843256379</v>
       </c>
-      <c r="O25" s="29">
-        <v>3.1995699541339513</v>
+      <c r="O25" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2219,8 +2323,9 @@
       <c r="N26" s="16">
         <v>24.422843256379103</v>
       </c>
-      <c r="O26" s="29">
-        <v>0.52127473823901482</v>
+      <c r="O26" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2252,7 +2357,9 @@
       <c r="I27" s="6">
         <v>2.5680000000000014</v>
       </c>
-      <c r="J27" s="15"/>
+      <c r="J27" s="15">
+        <v>0.17658708899577019</v>
+      </c>
       <c r="K27" s="3">
         <v>2662.7</v>
       </c>
@@ -2265,8 +2372,9 @@
       <c r="N27" s="16">
         <v>33.5722964763062</v>
       </c>
-      <c r="O27" s="29">
-        <v>0.88438491914909789</v>
+      <c r="O27" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2311,8 +2419,9 @@
       <c r="N28" s="16">
         <v>35.613608748481163</v>
       </c>
-      <c r="O28" s="29">
-        <v>1.4413023745326605</v>
+      <c r="O28" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2357,8 +2466,9 @@
       <c r="N29" s="16">
         <v>41.154313487241794</v>
       </c>
-      <c r="O29" s="29">
-        <v>1.4323916952465237</v>
+      <c r="O29" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2405,8 +2515,9 @@
       <c r="N30" s="16">
         <v>6.7048710601719197</v>
       </c>
-      <c r="O30" s="29">
-        <v>1.5794179034677844</v>
+      <c r="O30" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2453,8 +2564,9 @@
       <c r="N31" s="16">
         <v>11.375358166189113</v>
       </c>
-      <c r="O31" s="29">
-        <v>1.3312855213464623</v>
+      <c r="O31" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2486,7 +2598,9 @@
       <c r="I32" s="6">
         <v>1.4730000000000025</v>
       </c>
-      <c r="J32" s="15"/>
+      <c r="J32" s="15">
+        <v>0.34117493069294136</v>
+      </c>
       <c r="K32" s="3">
         <v>2661</v>
       </c>
@@ -2499,8 +2613,9 @@
       <c r="N32" s="16">
         <v>18.538681948424067</v>
       </c>
-      <c r="O32" s="29">
-        <v>1.3208029581862542</v>
+      <c r="O32" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2545,8 +2660,9 @@
       <c r="N33" s="16">
         <v>18.424068767908309</v>
       </c>
-      <c r="O33" s="29">
-        <v>1.2945965502857331</v>
+      <c r="O33" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2591,8 +2707,9 @@
       <c r="N34" s="16">
         <v>20.315186246418339</v>
       </c>
-      <c r="O34" s="29">
-        <v>1.2736314239653161</v>
+      <c r="O34" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2624,7 +2741,9 @@
       <c r="I35" s="6">
         <v>3.5240000000000009</v>
       </c>
-      <c r="J35" s="20"/>
+      <c r="J35" s="15">
+        <v>0.47132402159590076</v>
+      </c>
       <c r="K35" s="4">
         <v>2201.4</v>
       </c>
@@ -2637,8 +2756,9 @@
       <c r="N35" s="16">
         <v>17.123595505617978</v>
       </c>
-      <c r="O35" s="29">
-        <v>0.33544202112666771</v>
+      <c r="O35" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2683,8 +2803,9 @@
       <c r="N36" s="16">
         <v>16.988764044943821</v>
       </c>
-      <c r="O36" s="29">
-        <v>0.31971817638635514</v>
+      <c r="O36" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2729,59 +2850,63 @@
       <c r="N37" s="16">
         <v>16.651685393258425</v>
       </c>
-      <c r="O37" s="29">
-        <v>0.31447689480625096</v>
+      <c r="O37" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D38" s="21">
-        <v>10</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="F38" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>W10-5</v>
+        <v>W11-2</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H38" s="20">
-        <v>-28.1</v>
+        <v>-27.69</v>
       </c>
       <c r="I38" s="6">
-        <v>3.1099999999999994</v>
-      </c>
-      <c r="J38" s="20"/>
+        <v>3.5199999999999996</v>
+      </c>
+      <c r="J38" s="20">
+        <v>0.45065101057618256</v>
+      </c>
       <c r="K38" s="4">
         <v>2201.6</v>
       </c>
       <c r="L38" s="4">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="M38" s="3">
         <v>445</v>
       </c>
       <c r="N38" s="16">
-        <v>16.382022471910112</v>
-      </c>
-      <c r="O38" s="29">
-        <v>3.4904003137994497</v>
+        <v>4.3146067415730345</v>
+      </c>
+      <c r="O38" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>6</v>
@@ -2800,36 +2925,35 @@
         <v>W11-2</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39" s="20">
-        <v>-27.69</v>
+        <v>-26.806999999999999</v>
       </c>
       <c r="I39" s="6">
-        <v>3.5199999999999996</v>
-      </c>
-      <c r="J39" s="20">
-        <v>0.45065101057618256</v>
-      </c>
+        <v>4.4030000000000022</v>
+      </c>
+      <c r="J39" s="20"/>
       <c r="K39" s="4">
-        <v>2201.6</v>
+        <v>2201.4</v>
       </c>
       <c r="L39" s="4">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M39" s="3">
         <v>445</v>
       </c>
       <c r="N39" s="16">
-        <v>4.3146067415730345</v>
-      </c>
-      <c r="O39" s="29">
-        <v>3.251182846810079</v>
+        <v>4.1123595505617976</v>
+      </c>
+      <c r="O39" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>6</v>
@@ -2848,85 +2972,89 @@
         <v>W11-2</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H40" s="20">
-        <v>-26.806999999999999</v>
+        <v>-27.091999999999999</v>
       </c>
       <c r="I40" s="6">
-        <v>4.4030000000000022</v>
+        <v>4.1180000000000021</v>
       </c>
       <c r="J40" s="20"/>
       <c r="K40" s="4">
         <v>2201.4</v>
       </c>
       <c r="L40" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M40" s="3">
         <v>445</v>
       </c>
       <c r="N40" s="16">
-        <v>4.1123595505617976</v>
-      </c>
-      <c r="O40" s="29">
-        <v>3.2158439028230137</v>
+        <v>4.0449438202247192</v>
+      </c>
+      <c r="O40" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="21">
-        <v>11</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>8</v>
+      <c r="A41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="F41" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>W11-2</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="20">
-        <v>-27.091999999999999</v>
+        <v>W1-1</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="26">
+        <v>-30.591000000000001</v>
       </c>
       <c r="I41" s="6">
-        <v>4.1180000000000021</v>
-      </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="4">
-        <v>2201.4</v>
-      </c>
-      <c r="L41" s="4">
-        <v>60</v>
+        <v>0.61899999999999977</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0.1060015723153831</v>
+      </c>
+      <c r="K41" s="5">
+        <v>2651.4</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1284</v>
       </c>
       <c r="M41" s="3">
-        <v>445</v>
+        <v>858</v>
       </c>
       <c r="N41" s="16">
-        <v>4.0449438202247192</v>
-      </c>
-      <c r="O41" s="29">
-        <v>4.4418334211435369</v>
+        <v>44.895104895104893</v>
+      </c>
+      <c r="O41" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -2939,35 +3067,36 @@
         <f t="shared" si="0"/>
         <v>W1-1</v>
       </c>
-      <c r="G42" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="26">
-        <v>-30.591000000000001</v>
+      <c r="G42" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="15">
+        <v>-30.411000000000001</v>
       </c>
       <c r="I42" s="6">
-        <v>0.61899999999999977</v>
-      </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="5">
-        <v>2651.4</v>
-      </c>
-      <c r="L42" s="5">
-        <v>1284</v>
+        <v>0.79899999999999949</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="3">
+        <v>2651.2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1196</v>
       </c>
       <c r="M42" s="3">
         <v>858</v>
       </c>
       <c r="N42" s="16">
-        <v>44.895104895104893</v>
-      </c>
-      <c r="O42" s="29">
-        <v>4.2678570815149035</v>
+        <v>41.81818181818182</v>
+      </c>
+      <c r="O42" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>6</v>
@@ -2986,34 +3115,35 @@
         <v>W1-1</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H43" s="15">
-        <v>-30.411000000000001</v>
+        <v>-30.404</v>
       </c>
       <c r="I43" s="6">
-        <v>0.79899999999999949</v>
+        <v>0.80600000000000094</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="3">
-        <v>2651.2</v>
+        <v>2650.1</v>
       </c>
       <c r="L43" s="3">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="M43" s="3">
         <v>858</v>
       </c>
       <c r="N43" s="16">
-        <v>41.81818181818182</v>
-      </c>
-      <c r="O43" s="29">
-        <v>4.0476682766724146</v>
+        <v>41.363636363636367</v>
+      </c>
+      <c r="O43" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>6</v>
@@ -3025,41 +3155,44 @@
         <v>7</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>W1-2</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>W1-1</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>9</v>
-      </c>
       <c r="H44" s="15">
-        <v>-30.404</v>
+        <v>-30.457999999999998</v>
       </c>
       <c r="I44" s="6">
-        <v>0.80600000000000094</v>
-      </c>
-      <c r="J44" s="15"/>
+        <v>0.75200000000000244</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0.15135499110810149</v>
+      </c>
       <c r="K44" s="3">
-        <v>2650.1</v>
+        <v>2651.2</v>
       </c>
       <c r="L44" s="3">
-        <v>1183</v>
+        <v>1634</v>
       </c>
       <c r="M44" s="3">
         <v>858</v>
       </c>
       <c r="N44" s="16">
-        <v>41.363636363636367</v>
-      </c>
-      <c r="O44" s="29">
-        <v>4.7789125791740119</v>
+        <v>57.132867132867133</v>
+      </c>
+      <c r="O44" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>6</v>
@@ -3078,34 +3211,35 @@
         <v>W1-2</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H45" s="15">
-        <v>-30.457999999999998</v>
+        <v>-30.757999999999999</v>
       </c>
       <c r="I45" s="6">
-        <v>0.75200000000000244</v>
+        <v>0.45200000000000173</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="3">
-        <v>2651.2</v>
+        <v>2651</v>
       </c>
       <c r="L45" s="3">
-        <v>1634</v>
+        <v>1570</v>
       </c>
       <c r="M45" s="3">
         <v>858</v>
       </c>
       <c r="N45" s="16">
-        <v>57.132867132867133</v>
-      </c>
-      <c r="O45" s="29">
-        <v>4.6402751835324461</v>
+        <v>54.8951048951049</v>
+      </c>
+      <c r="O45" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>6</v>
@@ -3124,80 +3258,84 @@
         <v>W1-2</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H46" s="15">
-        <v>-30.757999999999999</v>
+        <v>-30.643000000000001</v>
       </c>
       <c r="I46" s="6">
-        <v>0.45200000000000173</v>
+        <v>0.56700000000000017</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="3">
-        <v>2651</v>
+        <v>2650.5</v>
       </c>
       <c r="L46" s="3">
-        <v>1570</v>
+        <v>1489</v>
       </c>
       <c r="M46" s="3">
         <v>858</v>
       </c>
       <c r="N46" s="16">
-        <v>54.8951048951049</v>
-      </c>
-      <c r="O46" s="29">
-        <v>4.5913443380118926</v>
+        <v>52.06293706293706</v>
+      </c>
+      <c r="O46" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="F47" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>W1-2</v>
+        <v>W2-1</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H47" s="15">
-        <v>-30.643000000000001</v>
+        <v>-30.175999999999998</v>
       </c>
       <c r="I47" s="6">
-        <v>0.56700000000000017</v>
-      </c>
-      <c r="J47" s="15"/>
+        <v>1.0340000000000025</v>
+      </c>
+      <c r="J47" s="15">
+        <v>6.9139954681307278E-2</v>
+      </c>
       <c r="K47" s="3">
         <v>2650.5</v>
       </c>
       <c r="L47" s="3">
-        <v>1489</v>
+        <v>1758</v>
       </c>
       <c r="M47" s="3">
         <v>858</v>
       </c>
       <c r="N47" s="16">
-        <v>52.06293706293706</v>
-      </c>
-      <c r="O47" s="29">
-        <v>6.4153775238058417</v>
+        <v>61.468531468531459</v>
+      </c>
+      <c r="O47" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>6</v>
@@ -3216,34 +3354,35 @@
         <v>W2-1</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H48" s="15">
-        <v>-30.175999999999998</v>
+        <v>-30.052</v>
       </c>
       <c r="I48" s="6">
-        <v>1.0340000000000025</v>
+        <v>1.1580000000000013</v>
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="3">
-        <v>2650.5</v>
+        <v>2650.7</v>
       </c>
       <c r="L48" s="3">
-        <v>1758</v>
+        <v>1707</v>
       </c>
       <c r="M48" s="3">
         <v>858</v>
       </c>
       <c r="N48" s="16">
-        <v>61.468531468531459</v>
-      </c>
-      <c r="O48" s="29">
-        <v>6.3909121010455667</v>
+        <v>59.685314685314687</v>
+      </c>
+      <c r="O48" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>6</v>
@@ -3262,80 +3401,84 @@
         <v>W2-1</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H49" s="15">
-        <v>-30.052</v>
+        <v>-30.061</v>
       </c>
       <c r="I49" s="6">
-        <v>1.1580000000000013</v>
+        <v>1.1490000000000009</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="3">
         <v>2650.7</v>
       </c>
       <c r="L49" s="3">
-        <v>1707</v>
+        <v>1689</v>
       </c>
       <c r="M49" s="3">
         <v>858</v>
       </c>
       <c r="N49" s="16">
-        <v>59.685314685314687</v>
-      </c>
-      <c r="O49" s="29">
-        <v>6.3229525933781314</v>
+        <v>59.055944055944053</v>
+      </c>
+      <c r="O49" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D50" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="F50" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>W3-2</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>W2-1</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>9</v>
-      </c>
       <c r="H50" s="15">
-        <v>-30.061</v>
+        <v>-29.655999999999999</v>
       </c>
       <c r="I50" s="6">
-        <v>1.1490000000000009</v>
-      </c>
-      <c r="J50" s="15"/>
+        <v>1.554000000000002</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0.16357363275703474</v>
+      </c>
       <c r="K50" s="3">
-        <v>2650.7</v>
+        <v>2651.6</v>
       </c>
       <c r="L50" s="3">
-        <v>1689</v>
+        <v>2360</v>
       </c>
       <c r="M50" s="3">
         <v>858</v>
       </c>
       <c r="N50" s="16">
-        <v>59.055944055944053</v>
-      </c>
-      <c r="O50" s="29">
-        <v>0.29086669281662081</v>
+        <v>82.51748251748252</v>
+      </c>
+      <c r="O50" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>6</v>
@@ -3354,34 +3497,35 @@
         <v>W3-2</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H51" s="15">
-        <v>-29.655999999999999</v>
+        <v>-29.956</v>
       </c>
       <c r="I51" s="6">
-        <v>1.554000000000002</v>
+        <v>1.2540000000000013</v>
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="3">
-        <v>2651.6</v>
+        <v>2651.4</v>
       </c>
       <c r="L51" s="3">
-        <v>2360</v>
+        <v>2351</v>
       </c>
       <c r="M51" s="3">
         <v>858</v>
       </c>
       <c r="N51" s="16">
-        <v>82.51748251748252</v>
-      </c>
-      <c r="O51" s="29">
-        <v>0.31533211557689733</v>
+        <v>82.202797202797214</v>
+      </c>
+      <c r="O51" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>6</v>
@@ -3400,34 +3544,35 @@
         <v>W3-2</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H52" s="15">
-        <v>-29.956</v>
+        <v>-29.693000000000001</v>
       </c>
       <c r="I52" s="6">
-        <v>1.2540000000000013</v>
+        <v>1.5169999999999995</v>
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="3">
-        <v>2651.4</v>
+        <v>2651.2</v>
       </c>
       <c r="L52" s="3">
-        <v>2351</v>
+        <v>2326</v>
       </c>
       <c r="M52" s="3">
         <v>858</v>
       </c>
       <c r="N52" s="16">
-        <v>82.202797202797214</v>
-      </c>
-      <c r="O52" s="29">
-        <v>0.31261373527020003</v>
+        <v>81.328671328671334</v>
+      </c>
+      <c r="O52" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>6</v>
@@ -3439,41 +3584,44 @@
         <v>9</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>W3-2</v>
+        <v>W3-3</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H53" s="15">
-        <v>-29.693000000000001</v>
+        <v>-30.962</v>
       </c>
       <c r="I53" s="6">
-        <v>1.5169999999999995</v>
-      </c>
-      <c r="J53" s="15"/>
+        <v>0.24800000000000111</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0.4828274363924791</v>
+      </c>
       <c r="K53" s="3">
-        <v>2651.2</v>
+        <v>2648.7</v>
       </c>
       <c r="L53" s="3">
-        <v>2326</v>
+        <v>107</v>
       </c>
       <c r="M53" s="3">
         <v>858</v>
       </c>
       <c r="N53" s="16">
-        <v>81.328671328671334</v>
-      </c>
-      <c r="O53" s="33">
-        <v>0.13264665231164138</v>
+        <v>3.7412587412587412</v>
+      </c>
+      <c r="O53" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>6</v>
@@ -3492,34 +3640,35 @@
         <v>W3-3</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H54" s="15">
-        <v>-30.962</v>
+        <v>-30.158999999999999</v>
       </c>
       <c r="I54" s="6">
-        <v>0.24800000000000111</v>
+        <v>1.0510000000000019</v>
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="3">
-        <v>2648.7</v>
+        <v>2648</v>
       </c>
       <c r="L54" s="3">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M54" s="3">
         <v>858</v>
       </c>
       <c r="N54" s="16">
-        <v>3.7412587412587412</v>
-      </c>
-      <c r="O54" s="33">
-        <v>0.536113553092884</v>
+        <v>4.0559440559440558</v>
+      </c>
+      <c r="O54" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>6</v>
@@ -3538,1180 +3687,1352 @@
         <v>W3-3</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H55" s="15">
-        <v>-30.158999999999999</v>
+        <v>-30.096</v>
       </c>
       <c r="I55" s="6">
-        <v>1.0510000000000019</v>
+        <v>1.1140000000000008</v>
       </c>
       <c r="J55" s="15"/>
       <c r="K55" s="3">
         <v>2648</v>
       </c>
       <c r="L55" s="3">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M55" s="3">
         <v>858</v>
       </c>
       <c r="N55" s="16">
-        <v>4.0559440559440558</v>
-      </c>
-      <c r="O55" s="33">
-        <v>0.47255369886022247</v>
+        <v>4.0209790209790217</v>
+      </c>
+      <c r="O55" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>9</v>
+      <c r="A56" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="21">
+        <v>13</v>
+      </c>
+      <c r="E56" s="36">
+        <v>3</v>
       </c>
       <c r="F56" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>W3-3</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="15">
-        <v>-30.096</v>
-      </c>
-      <c r="I56" s="6">
-        <v>1.1140000000000008</v>
-      </c>
-      <c r="J56" s="15"/>
-      <c r="K56" s="3">
-        <v>2648</v>
-      </c>
-      <c r="L56" s="3">
-        <v>115</v>
-      </c>
-      <c r="M56" s="3">
-        <v>858</v>
+        <v>W13-3</v>
+      </c>
+      <c r="G56" s="30">
+        <v>1</v>
+      </c>
+      <c r="H56" s="29">
+        <v>-26.291</v>
+      </c>
+      <c r="I56" s="29">
+        <v>4.9190000000000005</v>
+      </c>
+      <c r="J56" s="31"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29">
+        <v>48</v>
+      </c>
+      <c r="M56" s="30">
+        <v>844</v>
       </c>
       <c r="N56" s="16">
-        <v>4.0209790209790217</v>
-      </c>
-      <c r="O56" s="33">
-        <v>0.69915839655927647</v>
+        <v>1.7061611374407581</v>
+      </c>
+      <c r="O56" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="31" t="s">
+      <c r="A57" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D57" s="21">
         <v>13</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="36">
+        <v>2</v>
+      </c>
+      <c r="F57" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>W13-2</v>
+      </c>
+      <c r="G57" s="30">
         <v>3</v>
       </c>
-      <c r="F57" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>W13-3</v>
-      </c>
-      <c r="G57" s="31">
-        <v>1</v>
-      </c>
-      <c r="H57" s="30">
-        <v>-26.291</v>
-      </c>
-      <c r="I57" s="30">
-        <v>4.9190000000000005</v>
-      </c>
-      <c r="J57" s="32"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30">
-        <v>48</v>
-      </c>
-      <c r="M57" s="31">
+      <c r="H57" s="29">
+        <v>-27.861999999999998</v>
+      </c>
+      <c r="I57" s="29">
+        <v>3.3480000000000025</v>
+      </c>
+      <c r="J57" s="15">
+        <v>0.59778953933080214</v>
+      </c>
+      <c r="K57" s="29">
+        <v>2730</v>
+      </c>
+      <c r="L57" s="29">
+        <v>194</v>
+      </c>
+      <c r="M57" s="30">
         <v>844</v>
       </c>
       <c r="N57" s="16">
-        <v>1.7061611374407581</v>
-      </c>
-      <c r="O57" s="33">
-        <v>0.21831428192957647</v>
+        <v>6.8957345971563981</v>
+      </c>
+      <c r="O57" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="31" t="s">
+      <c r="A58" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D58" s="21">
         <v>13</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="36">
         <v>2</v>
       </c>
       <c r="F58" s="28" t="str">
         <f t="shared" si="0"/>
         <v>W13-2</v>
       </c>
-      <c r="G58" s="31">
-        <v>3</v>
-      </c>
-      <c r="H58" s="30">
-        <v>-27.861999999999998</v>
-      </c>
-      <c r="I58" s="30">
-        <v>3.3480000000000025</v>
-      </c>
-      <c r="J58" s="32"/>
-      <c r="K58" s="30">
-        <v>2730</v>
-      </c>
-      <c r="L58" s="30">
-        <v>194</v>
-      </c>
-      <c r="M58" s="31">
+      <c r="G58" s="30">
+        <v>2</v>
+      </c>
+      <c r="H58" s="29">
+        <v>-26.759</v>
+      </c>
+      <c r="I58" s="29">
+        <v>4.4510000000000005</v>
+      </c>
+      <c r="J58" s="31"/>
+      <c r="K58" s="29">
+        <v>2730.4</v>
+      </c>
+      <c r="L58" s="29">
+        <v>171</v>
+      </c>
+      <c r="M58" s="30">
         <v>844</v>
       </c>
       <c r="N58" s="16">
-        <v>6.8957345971563981</v>
-      </c>
-      <c r="O58" s="33">
-        <v>0.1879160907748253</v>
+        <v>6.0781990521327014</v>
+      </c>
+      <c r="O58" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="31" t="s">
+      <c r="A59" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D59" s="21">
         <v>13</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="36">
         <v>2</v>
       </c>
       <c r="F59" s="28" t="str">
         <f t="shared" si="0"/>
         <v>W13-2</v>
       </c>
-      <c r="G59" s="31">
-        <v>2</v>
-      </c>
-      <c r="H59" s="30">
-        <v>-26.759</v>
-      </c>
-      <c r="I59" s="30">
-        <v>4.4510000000000005</v>
-      </c>
-      <c r="J59" s="32"/>
-      <c r="K59" s="30">
-        <v>2730.4</v>
-      </c>
-      <c r="L59" s="30">
-        <v>171</v>
-      </c>
-      <c r="M59" s="31">
+      <c r="G59" s="30">
+        <v>1</v>
+      </c>
+      <c r="H59" s="29">
+        <v>-27.71</v>
+      </c>
+      <c r="I59" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="J59" s="31"/>
+      <c r="K59" s="29">
+        <v>2729.7</v>
+      </c>
+      <c r="L59" s="29">
+        <v>253</v>
+      </c>
+      <c r="M59" s="30">
         <v>844</v>
       </c>
       <c r="N59" s="16">
-        <v>6.0781990521327014</v>
-      </c>
-      <c r="O59" s="33">
-        <v>0.22384122577589485</v>
+        <v>8.9928909952606642</v>
+      </c>
+      <c r="O59" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="31" t="s">
+      <c r="A60" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D60" s="21">
         <v>13</v>
       </c>
-      <c r="E60" s="38">
-        <v>2</v>
+      <c r="E60" s="36">
+        <v>1</v>
       </c>
       <c r="F60" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>W13-2</v>
-      </c>
-      <c r="G60" s="31">
-        <v>1</v>
-      </c>
-      <c r="H60" s="30">
-        <v>-27.71</v>
-      </c>
-      <c r="I60" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="J60" s="32"/>
-      <c r="K60" s="30">
-        <v>2729.7</v>
-      </c>
-      <c r="L60" s="30">
-        <v>253</v>
-      </c>
-      <c r="M60" s="31">
+        <v>W13-1</v>
+      </c>
+      <c r="G60" s="30">
+        <v>3</v>
+      </c>
+      <c r="H60" s="29">
+        <v>-29.141999999999999</v>
+      </c>
+      <c r="I60" s="29">
+        <v>2.0680000000000014</v>
+      </c>
+      <c r="J60" s="15">
+        <v>0.71315706544911994</v>
+      </c>
+      <c r="K60" s="29">
+        <v>2730</v>
+      </c>
+      <c r="L60" s="29">
+        <v>79</v>
+      </c>
+      <c r="M60" s="30">
         <v>844</v>
       </c>
       <c r="N60" s="16">
-        <v>8.9928909952606642</v>
-      </c>
-      <c r="O60" s="33">
-        <v>0.19344303462114371</v>
+        <v>2.8080568720379144</v>
+      </c>
+      <c r="O60" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="31" t="s">
+      <c r="A61" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D61" s="21">
         <v>13</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="36">
         <v>1</v>
       </c>
       <c r="F61" s="28" t="str">
         <f t="shared" si="0"/>
         <v>W13-1</v>
       </c>
-      <c r="G61" s="31">
-        <v>3</v>
-      </c>
-      <c r="H61" s="30">
-        <v>-29.141999999999999</v>
-      </c>
-      <c r="I61" s="30">
-        <v>2.0680000000000014</v>
-      </c>
-      <c r="J61" s="32"/>
-      <c r="K61" s="30">
+      <c r="G61" s="30">
+        <v>2</v>
+      </c>
+      <c r="H61" s="29">
+        <v>-28.335000000000001</v>
+      </c>
+      <c r="I61" s="29">
+        <v>2.875</v>
+      </c>
+      <c r="J61" s="31"/>
+      <c r="K61" s="29">
         <v>2730</v>
       </c>
-      <c r="L61" s="30">
-        <v>79</v>
-      </c>
-      <c r="M61" s="31">
+      <c r="L61" s="29">
+        <v>68</v>
+      </c>
+      <c r="M61" s="30">
         <v>844</v>
       </c>
       <c r="N61" s="16">
-        <v>2.8080568720379144</v>
-      </c>
-      <c r="O61" s="33">
-        <v>0.21555081000641726</v>
+        <v>2.4170616113744074</v>
+      </c>
+      <c r="O61" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="31" t="s">
+      <c r="A62" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D62" s="21">
         <v>13</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="36">
         <v>1</v>
       </c>
       <c r="F62" s="28" t="str">
         <f t="shared" si="0"/>
         <v>W13-1</v>
       </c>
-      <c r="G62" s="31">
-        <v>2</v>
-      </c>
-      <c r="H62" s="30">
-        <v>-28.335000000000001</v>
-      </c>
-      <c r="I62" s="30">
-        <v>2.875</v>
-      </c>
-      <c r="J62" s="32"/>
-      <c r="K62" s="30">
-        <v>2730</v>
-      </c>
-      <c r="L62" s="30">
-        <v>68</v>
-      </c>
-      <c r="M62" s="31">
+      <c r="G62" s="30">
+        <v>1</v>
+      </c>
+      <c r="H62" s="29">
+        <v>-27.72</v>
+      </c>
+      <c r="I62" s="29">
+        <v>3.490000000000002</v>
+      </c>
+      <c r="J62" s="31"/>
+      <c r="K62" s="29">
+        <v>2729.7</v>
+      </c>
+      <c r="L62" s="29">
+        <v>81</v>
+      </c>
+      <c r="M62" s="30">
         <v>844</v>
       </c>
       <c r="N62" s="16">
-        <v>2.4170616113744074</v>
-      </c>
-      <c r="O62" s="33">
-        <v>0.26252983270012359</v>
+        <v>2.87914691943128</v>
+      </c>
+      <c r="O62" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>82</v>
+      <c r="A63" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="D63" s="21">
-        <v>13</v>
-      </c>
-      <c r="E63" s="38">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E63" s="30">
+        <v>3</v>
       </c>
       <c r="F63" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>W13-1</v>
-      </c>
-      <c r="G63" s="31">
-        <v>1</v>
-      </c>
-      <c r="H63" s="30">
-        <v>-27.72</v>
-      </c>
-      <c r="I63" s="30">
-        <v>3.490000000000002</v>
-      </c>
-      <c r="J63" s="32"/>
-      <c r="K63" s="30">
-        <v>2729.7</v>
-      </c>
-      <c r="L63" s="30">
-        <v>81</v>
-      </c>
-      <c r="M63" s="31">
+        <v>W11-3</v>
+      </c>
+      <c r="G63" s="30">
+        <v>3</v>
+      </c>
+      <c r="H63" s="29">
+        <v>-26.283999999999999</v>
+      </c>
+      <c r="I63" s="29">
+        <v>4.9260000000000019</v>
+      </c>
+      <c r="J63" s="15">
+        <v>0.85535158463250194</v>
+      </c>
+      <c r="K63" s="29">
+        <v>2730.2</v>
+      </c>
+      <c r="L63" s="29">
+        <v>70</v>
+      </c>
+      <c r="M63" s="30">
         <v>844</v>
       </c>
       <c r="N63" s="16">
-        <v>2.87914691943128</v>
-      </c>
-      <c r="O63" s="33">
-        <v>0.16857178731271094</v>
+        <v>2.4881516587677726</v>
+      </c>
+      <c r="O63" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="31" t="s">
+      <c r="A64" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D64" s="21">
         <v>11</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="30">
         <v>3</v>
       </c>
       <c r="F64" s="28" t="str">
         <f t="shared" si="0"/>
         <v>W11-3</v>
       </c>
-      <c r="G64" s="31">
-        <v>3</v>
-      </c>
-      <c r="H64" s="30">
-        <v>-26.283999999999999</v>
-      </c>
-      <c r="I64" s="30">
-        <v>4.9260000000000019</v>
-      </c>
-      <c r="J64" s="32"/>
-      <c r="K64" s="30">
-        <v>2730.2</v>
-      </c>
-      <c r="L64" s="30">
-        <v>70</v>
-      </c>
-      <c r="M64" s="31">
+      <c r="G64" s="30">
+        <v>2</v>
+      </c>
+      <c r="H64" s="29">
+        <v>-27.768999999999998</v>
+      </c>
+      <c r="I64" s="29">
+        <v>3.4410000000000025</v>
+      </c>
+      <c r="J64" s="31"/>
+      <c r="K64" s="29">
+        <v>2730.4</v>
+      </c>
+      <c r="L64" s="29">
+        <v>78</v>
+      </c>
+      <c r="M64" s="30">
         <v>844</v>
       </c>
       <c r="N64" s="16">
-        <v>2.4881516587677726</v>
-      </c>
-      <c r="O64" s="33">
-        <v>0.23489511346853162</v>
+        <v>2.7725118483412321</v>
+      </c>
+      <c r="O64" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="31" t="s">
+      <c r="A65" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D65" s="21">
         <v>11</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="30">
         <v>3</v>
       </c>
       <c r="F65" s="28" t="str">
         <f t="shared" si="0"/>
         <v>W11-3</v>
       </c>
-      <c r="G65" s="31">
-        <v>2</v>
-      </c>
-      <c r="H65" s="30">
-        <v>-27.768999999999998</v>
-      </c>
-      <c r="I65" s="30">
-        <v>3.4410000000000025</v>
-      </c>
-      <c r="J65" s="32"/>
-      <c r="K65" s="30">
-        <v>2730.4</v>
-      </c>
-      <c r="L65" s="30">
-        <v>78</v>
-      </c>
-      <c r="M65" s="31">
+      <c r="G65" s="30">
+        <v>1</v>
+      </c>
+      <c r="H65" s="29">
+        <v>-26.291</v>
+      </c>
+      <c r="I65" s="29">
+        <v>4.9190000000000005</v>
+      </c>
+      <c r="J65" s="31"/>
+      <c r="K65" s="29">
+        <v>2730</v>
+      </c>
+      <c r="L65" s="29">
+        <v>95</v>
+      </c>
+      <c r="M65" s="30">
         <v>844</v>
       </c>
       <c r="N65" s="16">
-        <v>2.7725118483412321</v>
-      </c>
-      <c r="O65" s="33">
-        <v>0.22107775385273565</v>
+        <v>3.376777251184834</v>
+      </c>
+      <c r="O65" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="31" t="s">
+      <c r="A66" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="21">
         <v>11</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="30">
+        <v>1</v>
+      </c>
+      <c r="F66" s="28" t="str">
+        <f t="shared" ref="F66:F83" si="2">CONCATENATE(C66,"-",E66)</f>
+        <v>W11-1</v>
+      </c>
+      <c r="G66" s="30">
         <v>3</v>
       </c>
-      <c r="F66" s="28" t="str">
-        <f t="shared" ref="F66:F81" si="1">CONCATENATE(C66,"-",E66)</f>
-        <v>W11-3</v>
-      </c>
-      <c r="G66" s="31">
-        <v>1</v>
-      </c>
-      <c r="H66" s="30">
-        <v>-26.291</v>
-      </c>
-      <c r="I66" s="30">
-        <v>4.9190000000000005</v>
-      </c>
-      <c r="J66" s="32"/>
-      <c r="K66" s="30">
-        <v>2730</v>
-      </c>
-      <c r="L66" s="30">
-        <v>95</v>
-      </c>
-      <c r="M66" s="31">
+      <c r="H66" s="29">
+        <v>-28.456</v>
+      </c>
+      <c r="I66" s="29">
+        <v>2.7540000000000013</v>
+      </c>
+      <c r="J66" s="15">
+        <v>0.44127806804024666</v>
+      </c>
+      <c r="K66" s="29">
+        <v>2729.5</v>
+      </c>
+      <c r="L66" s="29">
+        <v>61</v>
+      </c>
+      <c r="M66" s="30">
         <v>844</v>
       </c>
       <c r="N66" s="16">
-        <v>3.376777251184834</v>
+        <v>2.1682464454976302</v>
+      </c>
+      <c r="O66" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="31" t="s">
+      <c r="A67" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D67" s="21">
         <v>11</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="30">
         <v>1</v>
       </c>
       <c r="F67" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W11-1</v>
       </c>
-      <c r="G67" s="31">
-        <v>3</v>
-      </c>
-      <c r="H67" s="30">
-        <v>-28.456</v>
-      </c>
-      <c r="I67" s="30">
-        <v>2.7540000000000013</v>
-      </c>
-      <c r="J67" s="32"/>
-      <c r="K67" s="30">
-        <v>2729.5</v>
-      </c>
-      <c r="L67" s="30">
-        <v>61</v>
-      </c>
-      <c r="M67" s="31">
+      <c r="G67" s="30">
+        <v>2</v>
+      </c>
+      <c r="H67" s="29">
+        <v>-28.189</v>
+      </c>
+      <c r="I67" s="29">
+        <v>3.0210000000000008</v>
+      </c>
+      <c r="J67" s="31"/>
+      <c r="K67" s="29">
+        <v>2729.7</v>
+      </c>
+      <c r="L67" s="29">
+        <v>85</v>
+      </c>
+      <c r="M67" s="30">
         <v>844</v>
       </c>
       <c r="N67" s="16">
-        <v>2.1682464454976302</v>
+        <v>3.0213270142180093</v>
+      </c>
+      <c r="O67" s="59">
+        <f t="shared" ref="O67:O83" si="3">IF(N67&gt;=10,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="31" t="s">
+      <c r="A68" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D68" s="21">
         <v>11</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="30">
         <v>1</v>
       </c>
       <c r="F68" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W11-1</v>
       </c>
-      <c r="G68" s="31">
+      <c r="G68" s="30">
+        <v>1</v>
+      </c>
+      <c r="H68" s="29">
+        <v>-29.050999999999998</v>
+      </c>
+      <c r="I68" s="29">
+        <v>2.1590000000000025</v>
+      </c>
+      <c r="J68" s="31"/>
+      <c r="K68" s="29">
+        <v>2729.7</v>
+      </c>
+      <c r="L68" s="29">
+        <v>80</v>
+      </c>
+      <c r="M68" s="30">
+        <v>844</v>
+      </c>
+      <c r="N68" s="16">
+        <v>2.8436018957345968</v>
+      </c>
+      <c r="O68" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="32">
+        <v>5</v>
+      </c>
+      <c r="E69" s="39">
         <v>2</v>
       </c>
-      <c r="H68" s="30">
-        <v>-28.189</v>
-      </c>
-      <c r="I68" s="30">
-        <v>3.0210000000000008</v>
-      </c>
-      <c r="J68" s="32"/>
-      <c r="K68" s="30">
-        <v>2729.7</v>
-      </c>
-      <c r="L68" s="30">
-        <v>85</v>
-      </c>
-      <c r="M68" s="31">
-        <v>844</v>
-      </c>
-      <c r="N68" s="16">
-        <v>3.0213270142180093</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69" s="21">
-        <v>11</v>
-      </c>
-      <c r="E69" s="31">
-        <v>1</v>
-      </c>
       <c r="F69" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>W11-1</v>
-      </c>
-      <c r="G69" s="31">
-        <v>1</v>
-      </c>
-      <c r="H69" s="30">
-        <v>-29.050999999999998</v>
-      </c>
-      <c r="I69" s="30">
-        <v>2.1590000000000025</v>
-      </c>
-      <c r="J69" s="32"/>
-      <c r="K69" s="30">
-        <v>2729.7</v>
-      </c>
-      <c r="L69" s="30">
-        <v>80</v>
-      </c>
-      <c r="M69" s="31">
-        <v>844</v>
+        <f t="shared" si="2"/>
+        <v>W5-2</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="15">
+        <v>-29.248999999999999</v>
+      </c>
+      <c r="I69" s="29">
+        <v>1.9610000000000021</v>
+      </c>
+      <c r="J69" s="53">
+        <v>4.2579337712086135E-2</v>
+      </c>
+      <c r="L69" s="41">
+        <v>403</v>
+      </c>
+      <c r="M69">
+        <v>804</v>
       </c>
       <c r="N69" s="16">
-        <v>2.8436018957345968</v>
+        <v>15.037313432835822</v>
+      </c>
+      <c r="O69" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="39" t="s">
+      <c r="B70" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="34">
+      <c r="D70" s="32">
         <v>5</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="39">
         <v>2</v>
       </c>
       <c r="F70" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W5-2</v>
       </c>
-      <c r="G70" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="42">
-        <v>-29.248999999999999</v>
-      </c>
-      <c r="I70" s="30">
-        <v>1.9610000000000021</v>
-      </c>
-      <c r="J70" s="43"/>
-      <c r="L70" s="44">
-        <v>403</v>
+      <c r="G70" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="15">
+        <v>-29.210999999999999</v>
+      </c>
+      <c r="I70" s="29">
+        <v>1.9990000000000023</v>
+      </c>
+      <c r="J70" s="40"/>
+      <c r="L70" s="41">
+        <v>313</v>
       </c>
       <c r="M70">
         <v>804</v>
       </c>
       <c r="N70" s="16">
-        <v>15.037313432835822</v>
+        <v>11.67910447761194</v>
+      </c>
+      <c r="O70" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="39" t="s">
+      <c r="B71" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="34">
+      <c r="D71" s="32">
         <v>5</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E71" s="39">
         <v>2</v>
       </c>
       <c r="F71" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W5-2</v>
       </c>
-      <c r="G71" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="42">
-        <v>-29.210999999999999</v>
-      </c>
-      <c r="I71" s="30">
-        <v>1.9990000000000023</v>
-      </c>
-      <c r="J71" s="43"/>
-      <c r="L71" s="44">
-        <v>313</v>
+      <c r="G71" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="15">
+        <v>-29.164000000000001</v>
+      </c>
+      <c r="I71" s="29">
+        <v>2.0459999999999994</v>
+      </c>
+      <c r="J71" s="40"/>
+      <c r="L71" s="41">
+        <v>301</v>
       </c>
       <c r="M71">
         <v>804</v>
       </c>
       <c r="N71" s="16">
-        <v>11.67910447761194</v>
+        <v>11.231343283582088</v>
+      </c>
+      <c r="O71" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="34">
-        <v>5</v>
-      </c>
-      <c r="E72" s="41">
-        <v>2</v>
+      <c r="B72" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="32">
+        <v>6</v>
+      </c>
+      <c r="E72" s="39">
+        <v>1</v>
       </c>
       <c r="F72" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>W5-2</v>
-      </c>
-      <c r="G72" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="42">
-        <v>-29.164000000000001</v>
-      </c>
-      <c r="I72" s="30">
-        <v>2.0459999999999994</v>
-      </c>
-      <c r="J72" s="43"/>
-      <c r="L72" s="44">
-        <v>301</v>
+        <f t="shared" si="2"/>
+        <v>W6-1</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="54">
+        <v>-26.786999999999999</v>
+      </c>
+      <c r="I72" s="29">
+        <v>4.4230000000000018</v>
+      </c>
+      <c r="J72" s="53">
+        <v>0.24112341238461094</v>
+      </c>
+      <c r="L72" s="41">
+        <v>134</v>
       </c>
       <c r="M72">
         <v>804</v>
       </c>
       <c r="N72" s="16">
-        <v>11.231343283582088</v>
+        <v>5</v>
+      </c>
+      <c r="O72" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="39" t="s">
+      <c r="B73" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="34">
-        <v>6</v>
-      </c>
-      <c r="E73" s="41">
+      <c r="D73" s="32">
+        <v>6</v>
+      </c>
+      <c r="E73" s="39">
         <v>1</v>
       </c>
       <c r="F73" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W6-1</v>
       </c>
-      <c r="G73" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="30">
-        <v>4.4230000000000018</v>
-      </c>
-      <c r="J73" s="43"/>
-      <c r="L73" s="44">
-        <v>134</v>
+      <c r="G73" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="54">
+        <v>-26.446000000000002</v>
+      </c>
+      <c r="I73" s="29">
+        <v>4.7639999999999993</v>
+      </c>
+      <c r="J73" s="40"/>
+      <c r="L73" s="41">
+        <v>67</v>
       </c>
       <c r="M73">
         <v>804</v>
       </c>
       <c r="N73" s="16">
-        <v>5</v>
+        <v>2.5</v>
+      </c>
+      <c r="O73" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="39" t="s">
+      <c r="A74" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="34">
-        <v>6</v>
-      </c>
-      <c r="E74" s="41">
-        <v>1</v>
+      <c r="D74" s="32">
+        <v>6</v>
+      </c>
+      <c r="E74" s="39">
+        <v>4</v>
       </c>
       <c r="F74" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>W6-1</v>
-      </c>
-      <c r="G74" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I74" s="30">
-        <v>6.4420000000000002</v>
-      </c>
-      <c r="J74" s="43"/>
-      <c r="L74" s="44">
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>W6-4</v>
+      </c>
+      <c r="G74" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="15">
+        <v>-30.24</v>
+      </c>
+      <c r="I74" s="29">
+        <v>0.97000000000000242</v>
+      </c>
+      <c r="J74" s="40"/>
+      <c r="L74" s="41">
+        <v>7500</v>
       </c>
       <c r="M74">
         <v>804</v>
       </c>
       <c r="N74" s="16">
-        <v>2.5</v>
+        <v>279.85074626865674</v>
+      </c>
+      <c r="O74" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="A75" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="34">
-        <v>6</v>
-      </c>
-      <c r="E75" s="41">
+      <c r="D75" s="32">
+        <v>6</v>
+      </c>
+      <c r="E75" s="39">
         <v>4</v>
       </c>
       <c r="F75" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W6-4</v>
       </c>
-      <c r="G75" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="I75" s="30">
-        <v>0.97000000000000242</v>
-      </c>
-      <c r="J75" s="43"/>
-      <c r="L75" s="44">
-        <v>7500</v>
+      <c r="G75" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="15">
+        <v>-30.291</v>
+      </c>
+      <c r="I75" s="29">
+        <v>0.91900000000000048</v>
+      </c>
+      <c r="J75" s="40"/>
+      <c r="L75" s="41">
+        <v>1549</v>
       </c>
       <c r="M75">
         <v>804</v>
       </c>
       <c r="N75" s="16">
-        <v>279.85074626865674</v>
+        <v>57.798507462686565</v>
+      </c>
+      <c r="O75" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="34">
-        <v>6</v>
-      </c>
-      <c r="E76" s="41">
-        <v>4</v>
+      <c r="A76" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="55">
+        <v>7</v>
+      </c>
+      <c r="E76" s="30">
+        <v>1</v>
       </c>
       <c r="F76" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>W6-4</v>
-      </c>
-      <c r="G76" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="I76" s="30">
-        <v>0.91900000000000048</v>
-      </c>
-      <c r="J76" s="43"/>
-      <c r="L76" s="44">
-        <v>1549</v>
+        <f t="shared" si="2"/>
+        <v>W7-1</v>
+      </c>
+      <c r="G76" s="29">
+        <v>1</v>
+      </c>
+      <c r="H76" s="29">
+        <v>-27.68</v>
+      </c>
+      <c r="I76" s="29">
+        <v>3.5300000000000011</v>
+      </c>
+      <c r="J76" s="53">
+        <v>0.63498188950551948</v>
+      </c>
+      <c r="L76" s="41">
+        <v>135</v>
       </c>
       <c r="M76">
         <v>804</v>
       </c>
       <c r="N76" s="16">
-        <v>57.798507462686565</v>
+        <v>5.0373134328358216</v>
+      </c>
+      <c r="O76" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="46" t="s">
+      <c r="A77" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="32">
+        <v>7</v>
+      </c>
+      <c r="E77" s="39">
+        <v>1</v>
+      </c>
+      <c r="F77" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>W7-1</v>
+      </c>
+      <c r="G77" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="56">
+        <v>-26.782</v>
+      </c>
+      <c r="I77" s="29">
+        <v>4.4280000000000008</v>
+      </c>
+      <c r="J77" s="40"/>
+      <c r="L77" s="41">
+        <v>150</v>
+      </c>
+      <c r="M77">
+        <v>804</v>
+      </c>
+      <c r="N77" s="16">
+        <v>5.5970149253731343</v>
+      </c>
+      <c r="O77" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="47">
+      <c r="D78" s="44">
         <v>10</v>
       </c>
-      <c r="E77" s="46" t="s">
+      <c r="E78" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="F78" s="28" t="str">
+        <f t="shared" si="2"/>
         <v>W10-1</v>
       </c>
-      <c r="G77" s="48" t="s">
+      <c r="G78" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H77" s="49">
+      <c r="H78" s="46">
         <v>-28.812999999999999</v>
       </c>
-      <c r="I77" s="50">
+      <c r="I78" s="47">
         <v>2.397000000000002</v>
       </c>
-      <c r="J77" s="43"/>
-      <c r="L77">
+      <c r="J78" s="40"/>
+      <c r="L78">
         <v>335</v>
       </c>
-      <c r="M77">
+      <c r="M78">
         <v>778</v>
       </c>
-      <c r="N77" s="16">
+      <c r="N78" s="16">
         <v>12.917737789203084</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="46" t="s">
+      <c r="O78" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="47">
+      <c r="D79" s="44">
         <v>10</v>
       </c>
-      <c r="E78" s="52">
+      <c r="E79" s="49">
         <v>2</v>
       </c>
-      <c r="F78" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="F79" s="28" t="str">
+        <f t="shared" si="2"/>
         <v>W10-2</v>
       </c>
-      <c r="G78" s="48" t="s">
+      <c r="G79" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="H78" s="49">
+      <c r="H79" s="46">
         <v>-29.4</v>
       </c>
-      <c r="I78" s="53">
+      <c r="I79" s="50">
         <v>1.8100000000000023</v>
       </c>
-      <c r="J78" s="54"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="55">
+      <c r="J79" s="51"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="52">
         <v>1553</v>
       </c>
-      <c r="M78" s="51">
+      <c r="M79" s="48">
         <v>778</v>
       </c>
-      <c r="N78" s="55">
+      <c r="N79" s="52">
         <v>59.884318766066833</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="46" t="s">
+      <c r="O79" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="47">
+      <c r="D80" s="44">
         <v>10</v>
       </c>
-      <c r="E79" s="52">
+      <c r="E80" s="49">
         <v>2</v>
       </c>
-      <c r="F79" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="F80" s="28" t="str">
+        <f t="shared" si="2"/>
         <v>W10-2</v>
       </c>
-      <c r="G79" s="48" t="s">
+      <c r="G80" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="49">
+      <c r="H80" s="46">
         <v>-30.620999999999999</v>
       </c>
-      <c r="I79" s="53">
+      <c r="I80" s="50">
         <v>0.58900000000000219</v>
       </c>
-      <c r="J79" s="54"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="55">
+      <c r="J80" s="51"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="52">
         <v>1638</v>
       </c>
-      <c r="M79" s="51">
+      <c r="M80" s="48">
         <v>778</v>
       </c>
-      <c r="N79" s="55">
+      <c r="N80" s="52">
         <v>63.161953727506429</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="46" t="s">
+      <c r="O80" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="47">
+      <c r="D81" s="44">
         <v>10</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E81" s="49">
         <v>5</v>
       </c>
-      <c r="F80" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="F81" s="28" t="str">
+        <f t="shared" si="2"/>
         <v>W10-5</v>
       </c>
-      <c r="G80" s="48" t="s">
+      <c r="G81" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="H80" s="49">
+      <c r="H81" s="46">
         <v>-28.617999999999999</v>
       </c>
-      <c r="I80" s="53">
+      <c r="I81" s="50">
         <v>2.5920000000000023</v>
       </c>
-      <c r="J80" s="54">
+      <c r="J81" s="51">
         <v>0.68854145360561381</v>
       </c>
-      <c r="K80" s="51"/>
-      <c r="L80" s="55">
+      <c r="K81" s="48"/>
+      <c r="L81" s="52">
         <v>1880</v>
       </c>
-      <c r="M80" s="51">
+      <c r="M81" s="48">
         <v>778</v>
       </c>
-      <c r="N80" s="55">
+      <c r="N81" s="52">
         <v>72.493573264781489</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="46" t="s">
+      <c r="O81" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="47">
+      <c r="D82" s="44">
         <v>10</v>
       </c>
-      <c r="E81" s="52">
+      <c r="E82" s="49">
         <v>5</v>
       </c>
-      <c r="F81" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="F82" s="28" t="str">
+        <f t="shared" si="2"/>
         <v>W10-5</v>
       </c>
-      <c r="G81" s="48" t="s">
+      <c r="G82" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H81" s="49">
+      <c r="H82" s="46">
         <v>-29.463999999999999</v>
       </c>
-      <c r="I81" s="53">
+      <c r="I82" s="50">
         <v>1.7460000000000022</v>
       </c>
-      <c r="J81" s="54"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51">
+      <c r="J82" s="51"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48">
         <v>2015</v>
       </c>
-      <c r="M81" s="51">
+      <c r="M82" s="48">
         <v>778</v>
       </c>
-      <c r="N81" s="55">
+      <c r="N82" s="52">
         <v>77.699228791773777</v>
+      </c>
+      <c r="O82" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="21">
+        <v>10</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>W10-5</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="20">
+        <v>-28.1</v>
+      </c>
+      <c r="I83" s="6">
+        <v>3.1099999999999994</v>
+      </c>
+      <c r="J83" s="20"/>
+      <c r="K83" s="4">
+        <v>2201.6</v>
+      </c>
+      <c r="L83" s="4">
+        <v>243</v>
+      </c>
+      <c r="M83" s="3">
+        <v>445</v>
+      </c>
+      <c r="N83" s="16">
+        <v>16.382022471910112</v>
+      </c>
+      <c r="O83" s="59">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE1"/>
-  <conditionalFormatting sqref="N2:N79">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+  <conditionalFormatting sqref="N83 N2:N80">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
       <formula>10</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77 I2:I56">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="I78 I83 I2:I55">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>6.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80:N81">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+  <conditionalFormatting sqref="N81:N82">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>10</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O52">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/Lab-linked/Outlet_Isotopes_W0toW17.xlsx
+++ b/Data/Lab-linked/Outlet_Isotopes_W0toW17.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DayTightChunks/Documents/PhD/HydrologicalMonitoring/Data/Lab-linked/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="465" windowWidth="28380" windowHeight="14160"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="28380" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -610,12 +618,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
@@ -1081,7 +1089,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1093,21 +1101,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I91" sqref="H2:I91"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="27"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="27"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="27"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="27"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>55</v>
       </c>
@@ -1194,7 +1202,7 @@
         <v>44.895104895104893</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>41.81818181818182</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>41.363636363636367</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -1323,7 +1331,7 @@
         <v>57.132867132867133</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>54.8951048951049</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
@@ -1409,7 +1417,7 @@
         <v>52.06293706293706</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1452,7 +1460,7 @@
         <v>61.468531468531459</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1495,7 +1503,7 @@
         <v>59.685314685314687</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>59.055944055944053</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>82.51748251748252</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>82.202797202797214</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>67</v>
       </c>
@@ -1667,7 +1675,7 @@
         <v>81.328671328671334</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1710,7 +1718,7 @@
         <v>3.7412587412587412</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
@@ -1753,7 +1761,7 @@
         <v>4.0559440559440558</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
@@ -1796,7 +1804,7 @@
         <v>4.0209790209790217</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>5.7902735562310035</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>7.4316109422492396</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1925,7 +1933,7 @@
         <v>8.0243161094224913</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>31.95804195804196</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -2011,7 +2019,7 @@
         <v>31.643356643356647</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2054,7 +2062,7 @@
         <v>32.9020979020979</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -2097,7 +2105,7 @@
         <v>22.386018237082066</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2148,7 @@
         <v>20.060790273556229</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>16.458966565349545</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
         <v>95</v>
       </c>
@@ -2226,7 +2234,7 @@
         <v>15.037313432835822</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
         <v>96</v>
       </c>
@@ -2267,7 +2275,7 @@
         <v>11.67910447761194</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>97</v>
       </c>
@@ -2308,7 +2316,7 @@
         <v>11.231343283582088</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -2351,7 +2359,7 @@
         <v>1.8252212389380531</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
@@ -2394,7 +2402,7 @@
         <v>1.8252212389380531</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>1.9247787610619469</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
         <v>98</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
         <v>99</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
@@ -2562,7 +2570,7 @@
         <v>50.508849557522126</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>56.913716814159287</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -2648,7 +2656,7 @@
         <v>60.13274336283186</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="42" t="s">
         <v>100</v>
       </c>
@@ -2689,7 +2697,7 @@
         <v>279.85074626865674</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="42" t="s">
         <v>101</v>
       </c>
@@ -2730,7 +2738,7 @@
         <v>57.798507462686565</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
         <v>106</v>
       </c>
@@ -2771,7 +2779,7 @@
         <v>5.0373134328358216</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="42" t="s">
         <v>108</v>
       </c>
@@ -2812,7 +2820,7 @@
         <v>5.5970149253731343</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
@@ -2855,7 +2863,7 @@
         <v>1.094224924012158</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -2898,7 +2906,7 @@
         <v>2.0048602673147022</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -2941,7 +2949,7 @@
         <v>2.1142162818955041</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>32</v>
       </c>
@@ -2984,7 +2992,7 @@
         <v>2.6443768996960486</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
@@ -3027,7 +3035,7 @@
         <v>80.558930741190764</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
@@ -3070,7 +3078,7 @@
         <v>78.663426488456864</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
@@ -3113,7 +3121,7 @@
         <v>90.874848116646419</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
         <v>93</v>
       </c>
@@ -3154,7 +3162,7 @@
         <v>192.1606118546845</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="43" t="s">
         <v>110</v>
       </c>
@@ -3189,7 +3197,7 @@
       <c r="M49" s="43"/>
       <c r="N49" s="43"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
@@ -3232,7 +3240,7 @@
         <v>21.324422843256379</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
@@ -3275,7 +3283,7 @@
         <v>24.422843256379103</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -3318,7 +3326,7 @@
         <v>33.5722964763062</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>39</v>
       </c>
@@ -3361,7 +3369,7 @@
         <v>35.613608748481163</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>40</v>
       </c>
@@ -3404,7 +3412,7 @@
         <v>41.154313487241794</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>111</v>
       </c>
@@ -3435,7 +3443,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="15"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>111</v>
       </c>
@@ -3466,7 +3474,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="15"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>113</v>
       </c>
@@ -3497,7 +3505,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="15"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>42</v>
       </c>
@@ -3542,7 +3550,7 @@
         <v>6.7048710601719197</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
         <v>109</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>12.917737789203084</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>114</v>
       </c>
@@ -3628,7 +3636,7 @@
         <v>11.002865329512893</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>115</v>
       </c>
@@ -3671,7 +3679,7 @@
         <v>11.002865329512893</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>43</v>
       </c>
@@ -3714,7 +3722,7 @@
         <v>11.375358166189113</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="35" t="s">
         <v>102</v>
       </c>
@@ -3755,7 +3763,7 @@
         <v>59.884318766066833</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="35" t="s">
         <v>103</v>
       </c>
@@ -3796,7 +3804,7 @@
         <v>63.161953727506429</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>44</v>
       </c>
@@ -3839,7 +3847,7 @@
         <v>18.538681948424067</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>45</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>18.424068767908309</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>46</v>
       </c>
@@ -3925,7 +3933,7 @@
         <v>20.315186246418339</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>47</v>
       </c>
@@ -3968,7 +3976,7 @@
         <v>17.123595505617978</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>48</v>
       </c>
@@ -4011,7 +4019,7 @@
         <v>16.988764044943821</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -4054,7 +4062,7 @@
         <v>16.651685393258425</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>104</v>
       </c>
@@ -4097,7 +4105,7 @@
         <v>72.493573264781489</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="35" t="s">
         <v>105</v>
       </c>
@@ -4138,7 +4146,7 @@
         <v>77.699228791773777</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>116</v>
       </c>
@@ -4181,7 +4189,7 @@
         <v>16.382022471910112</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>117</v>
       </c>
@@ -4212,7 +4220,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="15"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>50</v>
       </c>
@@ -4255,7 +4263,7 @@
         <v>16.382022471910112</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="43" t="s">
         <v>90</v>
       </c>
@@ -4300,7 +4308,7 @@
         <v>2.1682464454976302</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="43" t="s">
         <v>91</v>
       </c>
@@ -4343,7 +4351,7 @@
         <v>3.0213270142180093</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="43" t="s">
         <v>92</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>2.8436018957345968</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>52</v>
       </c>
@@ -4429,7 +4437,7 @@
         <v>4.3146067415730345</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>53</v>
       </c>
@@ -4472,7 +4480,7 @@
         <v>4.1123595505617976</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>54</v>
       </c>
@@ -4515,7 +4523,7 @@
         <v>4.0449438202247192</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="43" t="s">
         <v>87</v>
       </c>
@@ -4558,7 +4566,7 @@
         <v>2.4881516587677726</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="43" t="s">
         <v>88</v>
       </c>
@@ -4601,7 +4609,7 @@
         <v>2.7725118483412321</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="43" t="s">
         <v>89</v>
       </c>
@@ -4644,7 +4652,7 @@
         <v>3.376777251184834</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="43" t="s">
         <v>84</v>
       </c>
@@ -4687,7 +4695,7 @@
         <v>2.8080568720379144</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="43" t="s">
         <v>85</v>
       </c>
@@ -4730,7 +4738,7 @@
         <v>2.4170616113744074</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="43" t="s">
         <v>86</v>
       </c>
@@ -4773,7 +4781,7 @@
         <v>2.87914691943128</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="43" t="s">
         <v>82</v>
       </c>
@@ -4816,7 +4824,7 @@
         <v>6.8957345971563981</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="43" t="s">
         <v>83</v>
       </c>
@@ -4859,7 +4867,7 @@
         <v>6.0781990521327014</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="43" t="s">
         <v>80</v>
       </c>
@@ -4902,7 +4910,7 @@
         <v>8.9928909952606642</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="43" t="s">
         <v>94</v>
       </c>
